--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx, "A 31987-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -834,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -891,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -953,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1015,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx, "A 31987-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023 artfynd.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023.png", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023 karta.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 fsc-klagomål.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 fsc-klagomål mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023 tillsynsbegäran.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/ti,llsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 fsc-klagomål.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 FSC-klagomål.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 fsc-klagomål mail.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 FSC-klagomål mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/ti,llsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/Översikt ESKILSTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45117</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45118</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
